--- a/Data/EXO/DESeq/RawcountsSubbedCav1.xlsx
+++ b/Data/EXO/DESeq/RawcountsSubbedCav1.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9510"/>
   </bookViews>
   <sheets>
     <sheet name="SubbeddataonlyforCav1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="122">
   <si>
     <t>ID</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>Exo</t>
+  </si>
+  <si>
+    <t>Variance</t>
   </si>
 </sst>
 </file>
@@ -895,10 +898,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1127,11 +1130,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="282331312"/>
-        <c:axId val="282331872"/>
+        <c:axId val="400486016"/>
+        <c:axId val="400486576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="282331312"/>
+        <c:axId val="400486016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1174,7 +1177,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282331872"/>
+        <c:crossAx val="400486576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1182,7 +1185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282331872"/>
+        <c:axId val="400486576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1233,7 +1236,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282331312"/>
+        <c:crossAx val="400486016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1538,11 +1541,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="339107984"/>
-        <c:axId val="339107424"/>
+        <c:axId val="400490496"/>
+        <c:axId val="400491056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="339107984"/>
+        <c:axId val="400490496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1585,7 +1588,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339107424"/>
+        <c:crossAx val="400491056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1593,7 +1596,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="339107424"/>
+        <c:axId val="400491056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,7 +1647,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="339107984"/>
+        <c:crossAx val="400490496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1847,11 +1850,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="286514320"/>
-        <c:axId val="286514880"/>
+        <c:axId val="203656624"/>
+        <c:axId val="203657184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="286514320"/>
+        <c:axId val="203656624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1894,7 +1897,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286514880"/>
+        <c:crossAx val="203657184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1902,7 +1905,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="286514880"/>
+        <c:axId val="203657184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1953,7 +1956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="286514320"/>
+        <c:crossAx val="203656624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2226,11 +2229,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="280557232"/>
-        <c:axId val="280556672"/>
+        <c:axId val="203660544"/>
+        <c:axId val="203661104"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280557232"/>
+        <c:axId val="203660544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2273,7 +2276,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280556672"/>
+        <c:crossAx val="203661104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2281,7 +2284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280556672"/>
+        <c:axId val="203661104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2332,7 +2335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280557232"/>
+        <c:crossAx val="203660544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2637,11 +2640,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="280817600"/>
-        <c:axId val="282286960"/>
+        <c:axId val="274006864"/>
+        <c:axId val="274007424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="280817600"/>
+        <c:axId val="274006864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2684,7 +2687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="282286960"/>
+        <c:crossAx val="274007424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2692,7 +2695,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="282286960"/>
+        <c:axId val="274007424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2743,7 +2746,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="280817600"/>
+        <c:crossAx val="274006864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5959,8 +5962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EL96"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="L62" sqref="L62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5992,53 +5995,63 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="3" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="2" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="C2">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4">
+        <v>13</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>25</v>
-      </c>
-      <c r="D2">
-        <v>30</v>
-      </c>
-      <c r="E2" s="4">
-        <v>26</v>
-      </c>
-      <c r="F2">
-        <v>33</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
+      <c r="H2" s="3">
+        <f>VAR(B2:G2)</f>
+        <v>18.166666666666668</v>
       </c>
     </row>
     <row r="3" spans="1:142" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>19</v>
-      </c>
-      <c r="F3" s="2">
-        <v>16</v>
-      </c>
-      <c r="G3" s="2">
-        <v>6</v>
-      </c>
-      <c r="H3" s="3"/>
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4">
+        <v>17</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H66" si="0">VAR(B3:G3)</f>
+        <v>32.666666666666671</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -6176,50 +6189,57 @@
     </row>
     <row r="4" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E4" s="4">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="F4">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
+        <v>52.266666666666652</v>
+      </c>
+    </row>
+    <row r="5" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="6">
-        <v>113</v>
-      </c>
-      <c r="F5" s="1">
-        <v>92</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7</v>
-      </c>
-      <c r="H5" s="3"/>
+      <c r="B5" s="2">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>19</v>
+      </c>
+      <c r="F5" s="2">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>66.3</v>
+      </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
@@ -6357,257 +6377,300 @@
     </row>
     <row r="6" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>35</v>
+      </c>
+      <c r="E6" s="4">
         <v>21</v>
       </c>
-      <c r="D6">
-        <v>38</v>
-      </c>
-      <c r="E6" s="4">
-        <v>25</v>
-      </c>
       <c r="F6">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="0"/>
+        <v>142.69999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
       <c r="C7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F7">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="0"/>
+        <v>160.9666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="C8">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="G8">
-        <v>16</v>
+        <v>11</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>164.26666666666659</v>
       </c>
     </row>
     <row r="9" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E9" s="4">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>165.36666666666662</v>
       </c>
     </row>
     <row r="10" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>25</v>
+      </c>
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>33</v>
+      </c>
+      <c r="G10">
         <v>6</v>
       </c>
-      <c r="C10">
-        <v>39</v>
-      </c>
-      <c r="D10">
-        <v>27</v>
-      </c>
-      <c r="E10" s="4">
-        <v>39</v>
-      </c>
-      <c r="F10">
-        <v>31</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
+      <c r="H10" s="3">
+        <f t="shared" si="0"/>
+        <v>185.2</v>
       </c>
     </row>
     <row r="11" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>39</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4">
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <v>31</v>
+      </c>
+      <c r="G11">
         <v>7</v>
       </c>
-      <c r="C11">
-        <v>66</v>
-      </c>
-      <c r="D11">
-        <v>77</v>
-      </c>
-      <c r="E11" s="4">
-        <v>61</v>
-      </c>
-      <c r="F11">
-        <v>102</v>
-      </c>
-      <c r="G11">
-        <v>19</v>
+      <c r="H11" s="3">
+        <f t="shared" si="0"/>
+        <v>223.3666666666667</v>
       </c>
     </row>
     <row r="12" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E12" s="4">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="0"/>
+        <v>263.2</v>
       </c>
     </row>
     <row r="13" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>27</v>
+      </c>
+      <c r="D13">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <v>117</v>
-      </c>
-      <c r="D13">
-        <v>224</v>
-      </c>
       <c r="E13" s="4">
-        <v>156</v>
+        <v>36</v>
       </c>
       <c r="F13">
-        <v>441</v>
+        <v>53</v>
       </c>
       <c r="G13">
-        <v>35</v>
+        <v>10</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="0"/>
+        <v>316.56666666666672</v>
       </c>
     </row>
     <row r="14" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
-      <c r="C14">
-        <v>156</v>
-      </c>
-      <c r="D14">
-        <v>201</v>
-      </c>
-      <c r="E14" s="4">
-        <v>188</v>
-      </c>
-      <c r="F14">
-        <v>243</v>
-      </c>
-      <c r="G14">
-        <v>27</v>
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2">
+        <v>40</v>
+      </c>
+      <c r="C14" s="2">
+        <v>72</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5">
+        <v>45</v>
+      </c>
+      <c r="F14" s="2">
+        <v>25</v>
+      </c>
+      <c r="G14" s="2">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="0"/>
+        <v>562.4</v>
       </c>
     </row>
     <row r="15" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>65</v>
+      </c>
+      <c r="D15">
+        <v>36</v>
+      </c>
+      <c r="E15" s="4">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>59</v>
+      </c>
+      <c r="G15">
         <v>8</v>
       </c>
-      <c r="C15">
-        <v>86</v>
-      </c>
-      <c r="D15">
-        <v>53</v>
-      </c>
-      <c r="E15" s="4">
-        <v>52</v>
-      </c>
-      <c r="F15">
-        <v>20</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
+      <c r="H15" s="3">
+        <f t="shared" si="0"/>
+        <v>682.16666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>69</v>
+      </c>
+      <c r="E16" s="4">
+        <v>51</v>
+      </c>
+      <c r="F16">
+        <v>87</v>
+      </c>
+      <c r="G16">
         <v>9</v>
       </c>
-      <c r="C16" s="1">
-        <v>54</v>
-      </c>
-      <c r="D16" s="1">
-        <v>70</v>
-      </c>
-      <c r="E16" s="6">
-        <v>163</v>
-      </c>
-      <c r="F16" s="1">
-        <v>300</v>
-      </c>
-      <c r="G16" s="1">
-        <v>29</v>
-      </c>
-      <c r="H16" s="3"/>
+      <c r="H16" s="3">
+        <f t="shared" si="0"/>
+        <v>888.66666666666674</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -6745,280 +6808,327 @@
     </row>
     <row r="17" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>224</v>
+        <v>53</v>
       </c>
       <c r="E17" s="4">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="F17">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>4</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="0"/>
+        <v>1020.1666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="D18">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="E18" s="4">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F18">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="G18">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="0"/>
+        <v>1149.0666666666664</v>
       </c>
     </row>
     <row r="19" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="E19" s="4">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>280</v>
+        <v>102</v>
       </c>
       <c r="G19">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="0"/>
+        <v>1289.8666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C20">
-        <v>2457</v>
+        <v>56</v>
       </c>
       <c r="D20">
-        <v>2452</v>
+        <v>63</v>
       </c>
       <c r="E20" s="4">
-        <v>1432</v>
+        <v>115</v>
       </c>
       <c r="F20">
-        <v>2852</v>
+        <v>89</v>
       </c>
       <c r="G20">
-        <v>329</v>
+        <v>28</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="0"/>
+        <v>1368.5666666666664</v>
       </c>
     </row>
     <row r="21" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C21">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="D21">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="E21" s="4">
-        <v>30</v>
+        <v>103</v>
       </c>
       <c r="F21">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G21">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="0"/>
+        <v>1530.1666666666665</v>
       </c>
     </row>
     <row r="22" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B22">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C22">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="D22">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="F22">
-        <v>140</v>
+        <v>56</v>
       </c>
       <c r="G22">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="0"/>
+        <v>1859.8666666666663</v>
       </c>
     </row>
     <row r="23" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C23">
-        <v>200</v>
+        <v>69</v>
       </c>
       <c r="D23">
-        <v>228</v>
+        <v>43</v>
       </c>
       <c r="E23" s="4">
-        <v>267</v>
+        <v>132</v>
       </c>
       <c r="F23">
-        <v>317</v>
+        <v>61</v>
       </c>
       <c r="G23">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="0"/>
+        <v>1947.5</v>
       </c>
     </row>
     <row r="24" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B24">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="D24">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="E24" s="4">
-        <v>222</v>
+        <v>98</v>
       </c>
       <c r="F24">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="G24">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="0"/>
+        <v>2013.6</v>
       </c>
     </row>
     <row r="25" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B25">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C25">
-        <v>99</v>
+        <v>133</v>
       </c>
       <c r="D25">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="E25" s="4">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="F25">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="G25">
-        <v>29</v>
+        <v>20</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="0"/>
+        <v>2430.4</v>
       </c>
     </row>
     <row r="26" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D26">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E26" s="4">
-        <v>67</v>
+        <v>143</v>
       </c>
       <c r="F26">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="G26">
-        <v>14</v>
+        <v>29</v>
+      </c>
+      <c r="H26" s="3">
+        <f t="shared" si="0"/>
+        <v>2510.5666666666671</v>
       </c>
     </row>
     <row r="27" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>56</v>
-      </c>
-      <c r="D27">
-        <v>63</v>
-      </c>
-      <c r="E27" s="4">
-        <v>115</v>
-      </c>
-      <c r="F27">
-        <v>89</v>
-      </c>
-      <c r="G27">
-        <v>28</v>
+      <c r="A27" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="1">
+        <v>1</v>
+      </c>
+      <c r="C27" s="1">
+        <v>8</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="6">
+        <v>113</v>
+      </c>
+      <c r="F27" s="1">
+        <v>92</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="0"/>
+        <v>2598.666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="1">
-        <v>17</v>
-      </c>
-      <c r="C28" s="1">
-        <v>91</v>
-      </c>
-      <c r="D28" s="1">
-        <v>288</v>
-      </c>
-      <c r="E28" s="6">
-        <v>199</v>
-      </c>
-      <c r="F28" s="1">
-        <v>993</v>
-      </c>
-      <c r="G28" s="1">
-        <v>194</v>
-      </c>
-      <c r="H28" s="3"/>
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>84</v>
+      </c>
+      <c r="D28">
+        <v>43</v>
+      </c>
+      <c r="E28" s="4">
+        <v>98</v>
+      </c>
+      <c r="F28">
+        <v>140</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="0"/>
+        <v>2614.4</v>
+      </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
@@ -7156,441 +7266,516 @@
     </row>
     <row r="29" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B29">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="C29">
-        <v>47</v>
+        <v>136</v>
       </c>
       <c r="D29">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="E29" s="4">
-        <v>51</v>
+        <v>122</v>
       </c>
       <c r="F29">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" si="0"/>
+        <v>2739.0666666666671</v>
       </c>
     </row>
     <row r="30" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B30">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C30">
-        <v>224</v>
+        <v>88</v>
       </c>
       <c r="D30">
-        <v>437</v>
+        <v>82</v>
       </c>
       <c r="E30" s="4">
-        <v>230</v>
+        <v>143</v>
       </c>
       <c r="F30">
-        <v>426</v>
+        <v>148</v>
       </c>
       <c r="G30">
-        <v>90</v>
+        <v>25</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="0"/>
+        <v>2983.8666666666672</v>
       </c>
     </row>
     <row r="31" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B31">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C31">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="D31">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="E31" s="4">
-        <v>103</v>
+        <v>182</v>
       </c>
       <c r="F31">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="0"/>
+        <v>3248.166666666667</v>
       </c>
     </row>
     <row r="32" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B32">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C32">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="D32">
-        <v>10</v>
+        <v>201</v>
       </c>
       <c r="E32" s="4">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="F32">
-        <v>13</v>
+        <v>176</v>
       </c>
       <c r="G32">
-        <v>2</v>
+        <v>51</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="0"/>
+        <v>3442.9666666666658</v>
       </c>
     </row>
     <row r="33" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B33">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="C33">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="D33">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="E33" s="4">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="F33">
-        <v>56</v>
+        <v>172</v>
       </c>
       <c r="G33">
-        <v>6</v>
+        <v>30</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="0"/>
+        <v>3602</v>
       </c>
     </row>
     <row r="34" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B34">
+        <v>68</v>
+      </c>
+      <c r="C34">
+        <v>163</v>
+      </c>
+      <c r="D34">
+        <v>131</v>
+      </c>
+      <c r="E34" s="4">
+        <v>208</v>
+      </c>
+      <c r="F34">
+        <v>156</v>
+      </c>
+      <c r="G34">
         <v>19</v>
       </c>
-      <c r="C34">
-        <v>29</v>
-      </c>
-      <c r="D34">
-        <v>40</v>
-      </c>
-      <c r="E34" s="4">
-        <v>32</v>
-      </c>
-      <c r="F34">
-        <v>36</v>
-      </c>
-      <c r="G34">
-        <v>5</v>
+      <c r="H34" s="3">
+        <f t="shared" si="0"/>
+        <v>4762.1666666666661</v>
       </c>
     </row>
     <row r="35" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="B35">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="D35">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="E35" s="4">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F35">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G35">
-        <v>8</v>
+        <v>16</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="0"/>
+        <v>5104</v>
       </c>
     </row>
     <row r="36" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B36">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C36">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="D36">
-        <v>12</v>
+        <v>206</v>
       </c>
       <c r="E36" s="4">
-        <v>24</v>
+        <v>101</v>
       </c>
       <c r="F36">
-        <v>14</v>
+        <v>179</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>37</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="0"/>
+        <v>5127.1000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B37">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>374</v>
+        <v>183</v>
       </c>
       <c r="D37">
-        <v>418</v>
+        <v>185</v>
       </c>
       <c r="E37" s="4">
-        <v>626</v>
+        <v>131</v>
       </c>
       <c r="F37">
-        <v>973</v>
+        <v>182</v>
       </c>
       <c r="G37">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="0"/>
+        <v>5732.1666666666661</v>
       </c>
     </row>
     <row r="38" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B38">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="D38">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="E38" s="4">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="F38">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G38">
         <v>25</v>
       </c>
+      <c r="H38" s="3">
+        <f t="shared" si="0"/>
+        <v>6183.2</v>
+      </c>
     </row>
     <row r="39" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B39">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>200</v>
       </c>
       <c r="D39">
-        <v>30</v>
+        <v>132</v>
       </c>
       <c r="E39" s="4">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="F39">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="G39">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="0"/>
+        <v>6882.2666666666655</v>
       </c>
     </row>
     <row r="40" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C40">
-        <v>339</v>
+        <v>66</v>
       </c>
       <c r="D40">
-        <v>345</v>
+        <v>224</v>
       </c>
       <c r="E40" s="4">
-        <v>528</v>
+        <v>100</v>
       </c>
       <c r="F40">
-        <v>252</v>
+        <v>194</v>
       </c>
       <c r="G40">
-        <v>95</v>
+        <v>35</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="0"/>
+        <v>7548.6666666666661</v>
       </c>
     </row>
     <row r="41" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="B41">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="C41">
-        <v>402</v>
+        <v>151</v>
       </c>
       <c r="D41">
-        <v>747</v>
+        <v>154</v>
       </c>
       <c r="E41" s="4">
-        <v>330</v>
+        <v>145</v>
       </c>
       <c r="F41">
-        <v>1173</v>
+        <v>286</v>
       </c>
       <c r="G41">
-        <v>141</v>
+        <v>41</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="0"/>
+        <v>7768.3</v>
       </c>
     </row>
     <row r="42" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B42">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D42">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="E42" s="4">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="F42">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="G42">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="0"/>
+        <v>9406.9666666666653</v>
       </c>
     </row>
     <row r="43" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B43">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C43">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="D43">
-        <v>206</v>
+        <v>162</v>
       </c>
       <c r="E43" s="4">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="F43">
-        <v>179</v>
+        <v>280</v>
       </c>
       <c r="G43">
-        <v>37</v>
+        <v>26</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="0"/>
+        <v>9761.366666666665</v>
       </c>
     </row>
     <row r="44" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C44">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D44">
-        <v>132</v>
+        <v>203</v>
       </c>
       <c r="E44" s="4">
-        <v>58</v>
+        <v>258</v>
       </c>
       <c r="F44">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="G44">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="0"/>
+        <v>10105.366666666669</v>
       </c>
     </row>
     <row r="45" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45">
-        <v>35</v>
-      </c>
-      <c r="C45">
-        <v>148</v>
-      </c>
-      <c r="D45">
-        <v>243</v>
-      </c>
-      <c r="E45" s="4">
-        <v>218</v>
-      </c>
-      <c r="F45">
-        <v>432</v>
-      </c>
-      <c r="G45">
-        <v>83</v>
+      <c r="A45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" s="1">
+        <v>9</v>
+      </c>
+      <c r="C45" s="1">
+        <v>54</v>
+      </c>
+      <c r="D45" s="1">
+        <v>70</v>
+      </c>
+      <c r="E45" s="6">
+        <v>163</v>
+      </c>
+      <c r="F45" s="1">
+        <v>300</v>
+      </c>
+      <c r="G45" s="1">
+        <v>29</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="0"/>
+        <v>12040.566666666668</v>
       </c>
     </row>
     <row r="46" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C46">
-        <v>180</v>
+        <v>232</v>
       </c>
       <c r="D46">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="E46" s="4">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="F46">
-        <v>226</v>
+        <v>320</v>
       </c>
       <c r="G46">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="0"/>
+        <v>12303.766666666668</v>
       </c>
     </row>
     <row r="47" spans="1:142" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="2">
-        <v>40</v>
-      </c>
-      <c r="C47" s="2">
-        <v>72</v>
-      </c>
-      <c r="D47" s="2">
-        <v>50</v>
-      </c>
-      <c r="E47" s="5">
-        <v>45</v>
-      </c>
-      <c r="F47" s="2">
-        <v>25</v>
-      </c>
-      <c r="G47" s="2">
-        <v>2</v>
-      </c>
-      <c r="H47" s="3"/>
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47">
+        <v>14</v>
+      </c>
+      <c r="C47">
+        <v>200</v>
+      </c>
+      <c r="D47">
+        <v>228</v>
+      </c>
+      <c r="E47" s="4">
+        <v>267</v>
+      </c>
+      <c r="F47">
+        <v>317</v>
+      </c>
+      <c r="G47">
+        <v>23</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="0"/>
+        <v>16217.366666666669</v>
+      </c>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
@@ -7728,694 +7913,813 @@
     </row>
     <row r="48" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B48">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C48">
-        <v>1225</v>
+        <v>148</v>
       </c>
       <c r="D48">
-        <v>1390</v>
+        <v>243</v>
       </c>
       <c r="E48" s="4">
-        <v>1521</v>
+        <v>218</v>
       </c>
       <c r="F48">
-        <v>1054</v>
+        <v>432</v>
       </c>
       <c r="G48">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="0"/>
+        <v>19866.966666666667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B49">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C49">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="D49">
-        <v>98</v>
+        <v>224</v>
       </c>
       <c r="E49" s="4">
-        <v>122</v>
+        <v>156</v>
       </c>
       <c r="F49">
-        <v>137</v>
+        <v>441</v>
       </c>
       <c r="G49">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="0"/>
+        <v>24715.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B50">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C50">
-        <v>232</v>
+        <v>293</v>
       </c>
       <c r="D50">
+        <v>429</v>
+      </c>
+      <c r="E50" s="4">
+        <v>420</v>
+      </c>
+      <c r="F50">
+        <v>335</v>
+      </c>
+      <c r="G50">
+        <v>38</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="0"/>
+        <v>26073.466666666664</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>65</v>
+      </c>
+      <c r="B51">
+        <v>91</v>
+      </c>
+      <c r="C51">
+        <v>343</v>
+      </c>
+      <c r="D51">
+        <v>447</v>
+      </c>
+      <c r="E51" s="4">
+        <v>308</v>
+      </c>
+      <c r="F51">
+        <v>428</v>
+      </c>
+      <c r="G51">
+        <v>74</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="0"/>
+        <v>26536.566666666662</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52">
+        <v>17</v>
+      </c>
+      <c r="C52">
         <v>224</v>
       </c>
-      <c r="E50" s="4">
-        <v>217</v>
-      </c>
-      <c r="F50">
-        <v>320</v>
-      </c>
-      <c r="G50">
+      <c r="D52">
+        <v>437</v>
+      </c>
+      <c r="E52" s="4">
+        <v>230</v>
+      </c>
+      <c r="F52">
+        <v>426</v>
+      </c>
+      <c r="G52">
+        <v>90</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="0"/>
+        <v>29189.466666666664</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>67</v>
+      </c>
+      <c r="C53">
+        <v>306</v>
+      </c>
+      <c r="D53">
+        <v>326</v>
+      </c>
+      <c r="E53" s="4">
+        <v>487</v>
+      </c>
+      <c r="F53">
+        <v>345</v>
+      </c>
+      <c r="G53">
+        <v>35</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="0"/>
+        <v>30618.799999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51">
-        <v>53</v>
-      </c>
-      <c r="C51">
-        <v>133</v>
-      </c>
-      <c r="D51">
-        <v>119</v>
-      </c>
-      <c r="E51" s="4">
-        <v>81</v>
-      </c>
-      <c r="F51">
-        <v>146</v>
-      </c>
-      <c r="G51">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-      <c r="B52">
-        <v>54</v>
-      </c>
-      <c r="C52">
-        <v>151</v>
-      </c>
-      <c r="D52">
-        <v>154</v>
-      </c>
-      <c r="E52" s="4">
-        <v>145</v>
-      </c>
-      <c r="F52">
-        <v>286</v>
-      </c>
-      <c r="G52">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B54">
+        <v>27</v>
+      </c>
+      <c r="C54">
+        <v>339</v>
+      </c>
+      <c r="D54">
+        <v>345</v>
+      </c>
+      <c r="E54" s="4">
+        <v>528</v>
+      </c>
+      <c r="F54">
+        <v>252</v>
+      </c>
+      <c r="G54">
+        <v>95</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="0"/>
+        <v>33351.066666666666</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>86</v>
+      </c>
+      <c r="B55">
+        <v>461</v>
+      </c>
+      <c r="C55">
+        <v>436</v>
+      </c>
+      <c r="D55">
+        <v>523</v>
+      </c>
+      <c r="E55" s="4">
+        <v>659</v>
+      </c>
+      <c r="F55">
+        <v>608</v>
+      </c>
+      <c r="G55">
+        <v>141</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="0"/>
+        <v>33408.266666666648</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56">
+        <v>64</v>
+      </c>
+      <c r="C56">
+        <v>310</v>
+      </c>
+      <c r="D56">
+        <v>387</v>
+      </c>
+      <c r="E56" s="4">
+        <v>542</v>
+      </c>
+      <c r="F56">
+        <v>378</v>
+      </c>
+      <c r="G56">
+        <v>83</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="0"/>
+        <v>34977.199999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>165</v>
+      </c>
+      <c r="C57">
+        <v>313</v>
+      </c>
+      <c r="D57">
+        <v>620</v>
+      </c>
+      <c r="E57" s="4">
+        <v>428</v>
+      </c>
+      <c r="F57">
+        <v>442</v>
+      </c>
+      <c r="G57">
+        <v>93</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="0"/>
+        <v>37767.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>58</v>
       </c>
-      <c r="B53">
+      <c r="B58">
         <v>64</v>
       </c>
-      <c r="C53">
+      <c r="C58">
         <v>370</v>
       </c>
-      <c r="D53">
+      <c r="D58">
         <v>518</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E58" s="4">
         <v>498</v>
       </c>
-      <c r="F53">
+      <c r="F58">
         <v>609</v>
       </c>
-      <c r="G53">
+      <c r="G58">
         <v>89</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>59</v>
-      </c>
-      <c r="B54">
-        <v>64</v>
-      </c>
-      <c r="C54">
-        <v>310</v>
-      </c>
-      <c r="D54">
-        <v>387</v>
-      </c>
-      <c r="E54" s="4">
-        <v>542</v>
-      </c>
-      <c r="F54">
-        <v>378</v>
-      </c>
-      <c r="G54">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>60</v>
-      </c>
-      <c r="B55">
-        <v>67</v>
-      </c>
-      <c r="C55">
-        <v>306</v>
-      </c>
-      <c r="D55">
-        <v>326</v>
-      </c>
-      <c r="E55" s="4">
-        <v>487</v>
-      </c>
-      <c r="F55">
-        <v>345</v>
-      </c>
-      <c r="G55">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56">
-        <v>68</v>
-      </c>
-      <c r="C56">
-        <v>163</v>
-      </c>
-      <c r="D56">
-        <v>131</v>
-      </c>
-      <c r="E56" s="4">
-        <v>208</v>
-      </c>
-      <c r="F56">
-        <v>156</v>
-      </c>
-      <c r="G56">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>76</v>
-      </c>
-      <c r="C57">
-        <v>167</v>
-      </c>
-      <c r="D57">
-        <v>161</v>
-      </c>
-      <c r="E57" s="4">
-        <v>162</v>
-      </c>
-      <c r="F57">
-        <v>172</v>
-      </c>
-      <c r="G57">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58">
-        <v>78</v>
-      </c>
-      <c r="C58">
-        <v>86</v>
-      </c>
-      <c r="D58">
-        <v>65</v>
-      </c>
-      <c r="E58" s="4">
-        <v>182</v>
-      </c>
-      <c r="F58">
-        <v>54</v>
-      </c>
-      <c r="G58">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="3">
+        <f t="shared" si="0"/>
+        <v>53428.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B59">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="C59">
-        <v>93</v>
+        <v>397</v>
       </c>
       <c r="D59">
-        <v>201</v>
+        <v>418</v>
       </c>
       <c r="E59" s="4">
-        <v>102</v>
+        <v>495</v>
       </c>
       <c r="F59">
-        <v>176</v>
+        <v>749</v>
       </c>
       <c r="G59">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="0"/>
+        <v>57982.266666666677</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="B60">
+        <v>234</v>
+      </c>
+      <c r="C60">
+        <v>446</v>
+      </c>
+      <c r="D60">
+        <v>462</v>
+      </c>
+      <c r="E60" s="4">
+        <v>697</v>
+      </c>
+      <c r="F60">
+        <v>772</v>
+      </c>
+      <c r="G60">
+        <v>97</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="0"/>
+        <v>67221.466666666645</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61">
+        <v>166</v>
+      </c>
+      <c r="C61">
+        <v>516</v>
+      </c>
+      <c r="D61">
+        <v>604</v>
+      </c>
+      <c r="E61" s="4">
+        <v>872</v>
+      </c>
+      <c r="F61">
+        <v>551</v>
+      </c>
+      <c r="G61">
+        <v>138</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="0"/>
+        <v>78151.100000000006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>42</v>
+      </c>
+      <c r="B62">
+        <v>22</v>
+      </c>
+      <c r="C62">
+        <v>374</v>
+      </c>
+      <c r="D62">
+        <v>418</v>
+      </c>
+      <c r="E62" s="4">
+        <v>626</v>
+      </c>
+      <c r="F62">
+        <v>973</v>
+      </c>
+      <c r="G62">
+        <v>95</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="0"/>
+        <v>122874</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B63" s="1">
+        <v>17</v>
+      </c>
+      <c r="C63" s="1">
         <v>91</v>
       </c>
-      <c r="C60">
-        <v>343</v>
-      </c>
-      <c r="D60">
-        <v>447</v>
-      </c>
-      <c r="E60" s="4">
-        <v>308</v>
-      </c>
-      <c r="F60">
-        <v>428</v>
-      </c>
-      <c r="G60">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61">
-        <v>104</v>
-      </c>
-      <c r="C61">
-        <v>670</v>
-      </c>
-      <c r="D61">
-        <v>1071</v>
-      </c>
-      <c r="E61" s="4">
-        <v>642</v>
-      </c>
-      <c r="F61">
-        <v>1386</v>
-      </c>
-      <c r="G61">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62">
-        <v>115</v>
-      </c>
-      <c r="C62">
-        <v>293</v>
-      </c>
-      <c r="D62">
-        <v>429</v>
-      </c>
-      <c r="E62" s="4">
-        <v>420</v>
-      </c>
-      <c r="F62">
-        <v>335</v>
-      </c>
-      <c r="G62">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63">
-        <v>138</v>
-      </c>
-      <c r="C63">
-        <v>618</v>
-      </c>
-      <c r="D63">
-        <v>666</v>
-      </c>
-      <c r="E63" s="4">
-        <v>1458</v>
-      </c>
-      <c r="F63">
-        <v>569</v>
-      </c>
-      <c r="G63">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D63" s="1">
+        <v>288</v>
+      </c>
+      <c r="E63" s="6">
+        <v>199</v>
+      </c>
+      <c r="F63" s="1">
+        <v>993</v>
+      </c>
+      <c r="G63" s="1">
+        <v>194</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="0"/>
+        <v>125109.2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="B64">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="C64">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D64">
-        <v>418</v>
+        <v>747</v>
       </c>
       <c r="E64" s="4">
-        <v>495</v>
+        <v>330</v>
       </c>
       <c r="F64">
-        <v>749</v>
+        <v>1173</v>
       </c>
       <c r="G64">
-        <v>95</v>
+        <v>141</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="0"/>
+        <v>179753.36666666664</v>
       </c>
     </row>
     <row r="65" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C65">
-        <v>520</v>
+        <v>618</v>
       </c>
       <c r="D65">
-        <v>1310</v>
+        <v>666</v>
       </c>
       <c r="E65" s="4">
-        <v>1710</v>
+        <v>1458</v>
       </c>
       <c r="F65">
-        <v>2367</v>
+        <v>569</v>
       </c>
       <c r="G65">
-        <v>232</v>
+        <v>264</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="0"/>
+        <v>213203.3666666667</v>
       </c>
     </row>
     <row r="66" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="C66">
-        <v>1111</v>
+        <v>522</v>
       </c>
       <c r="D66">
-        <v>1765</v>
+        <v>456</v>
       </c>
       <c r="E66" s="4">
-        <v>1048</v>
+        <v>1391</v>
       </c>
       <c r="F66">
-        <v>2573</v>
+        <v>802</v>
       </c>
       <c r="G66">
-        <v>313</v>
+        <v>125</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="0"/>
+        <v>219034.16666666666</v>
       </c>
     </row>
     <row r="67" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B67">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C67">
-        <v>313</v>
+        <v>670</v>
       </c>
       <c r="D67">
-        <v>620</v>
+        <v>1071</v>
       </c>
       <c r="E67" s="4">
-        <v>428</v>
+        <v>642</v>
       </c>
       <c r="F67">
-        <v>442</v>
+        <v>1386</v>
       </c>
       <c r="G67">
-        <v>93</v>
+        <v>342</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" ref="H67:H96" si="1">VAR(B67:G67)</f>
+        <v>219168.7</v>
       </c>
     </row>
     <row r="68" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B68">
-        <v>166</v>
+        <v>256</v>
       </c>
       <c r="C68">
-        <v>516</v>
+        <v>851</v>
       </c>
       <c r="D68">
-        <v>604</v>
+        <v>950</v>
       </c>
       <c r="E68" s="4">
-        <v>872</v>
+        <v>1472</v>
       </c>
       <c r="F68">
-        <v>551</v>
+        <v>1159</v>
       </c>
       <c r="G68">
-        <v>138</v>
+        <v>155</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="1"/>
+        <v>263443.76666666672</v>
       </c>
     </row>
     <row r="69" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="B69">
-        <v>168</v>
+        <v>41</v>
       </c>
       <c r="C69">
-        <v>1663</v>
+        <v>1225</v>
       </c>
       <c r="D69">
-        <v>2578</v>
+        <v>1390</v>
       </c>
       <c r="E69" s="4">
-        <v>851</v>
+        <v>1521</v>
       </c>
       <c r="F69">
-        <v>1276</v>
+        <v>1054</v>
       </c>
       <c r="G69">
-        <v>608</v>
+        <v>283</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="1"/>
+        <v>374297.2</v>
       </c>
     </row>
     <row r="70" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="C70">
-        <v>522</v>
+        <v>1542</v>
       </c>
       <c r="D70">
-        <v>456</v>
+        <v>1541</v>
       </c>
       <c r="E70" s="4">
-        <v>1391</v>
+        <v>1189</v>
       </c>
       <c r="F70">
-        <v>802</v>
+        <v>1169</v>
       </c>
       <c r="G70">
-        <v>125</v>
+        <v>185</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="1"/>
+        <v>390289.7666666666</v>
       </c>
     </row>
     <row r="71" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="C71">
-        <v>2500</v>
+        <v>1663</v>
       </c>
       <c r="D71">
-        <v>3282</v>
+        <v>2578</v>
       </c>
       <c r="E71" s="4">
-        <v>4351</v>
+        <v>851</v>
       </c>
       <c r="F71">
-        <v>8000</v>
+        <v>1276</v>
       </c>
       <c r="G71">
-        <v>1015</v>
+        <v>608</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="1"/>
+        <v>731159.06666666677</v>
       </c>
     </row>
     <row r="72" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="B72">
-        <v>199</v>
+        <v>1648</v>
       </c>
       <c r="C72">
-        <v>1542</v>
+        <v>1966</v>
       </c>
       <c r="D72">
-        <v>1541</v>
+        <v>2922</v>
       </c>
       <c r="E72" s="4">
-        <v>1189</v>
+        <v>1887</v>
       </c>
       <c r="F72">
-        <v>1169</v>
+        <v>2366</v>
       </c>
       <c r="G72">
-        <v>185</v>
+        <v>345</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="1"/>
+        <v>747180.26666666637</v>
       </c>
     </row>
     <row r="73" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B73">
-        <v>227</v>
+        <v>381</v>
       </c>
       <c r="C73">
-        <v>1554</v>
+        <v>1753</v>
       </c>
       <c r="D73">
-        <v>2395</v>
+        <v>2311</v>
       </c>
       <c r="E73" s="4">
-        <v>1665</v>
+        <v>2116</v>
       </c>
       <c r="F73">
-        <v>3668</v>
+        <v>2214</v>
       </c>
       <c r="G73">
-        <v>600</v>
+        <v>497</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="1"/>
+        <v>771364.26666666684</v>
       </c>
     </row>
     <row r="74" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B74">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="C74">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="D74">
-        <v>462</v>
+        <v>1310</v>
       </c>
       <c r="E74" s="4">
-        <v>697</v>
+        <v>1710</v>
       </c>
       <c r="F74">
-        <v>772</v>
+        <v>2367</v>
       </c>
       <c r="G74">
-        <v>97</v>
+        <v>232</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="1"/>
+        <v>803147.9</v>
       </c>
     </row>
     <row r="75" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B75">
-        <v>254</v>
+        <v>164</v>
       </c>
       <c r="C75">
-        <v>1454</v>
+        <v>1111</v>
       </c>
       <c r="D75">
-        <v>1588</v>
+        <v>1765</v>
       </c>
       <c r="E75" s="4">
-        <v>1709</v>
+        <v>1048</v>
       </c>
       <c r="F75">
-        <v>2977</v>
+        <v>2573</v>
       </c>
       <c r="G75">
-        <v>523</v>
+        <v>313</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="1"/>
+        <v>817386.2666666666</v>
       </c>
     </row>
     <row r="76" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B76">
-        <v>256</v>
+        <v>539</v>
       </c>
       <c r="C76">
-        <v>851</v>
+        <v>1639</v>
       </c>
       <c r="D76">
-        <v>950</v>
+        <v>2059</v>
       </c>
       <c r="E76" s="4">
-        <v>1472</v>
+        <v>2455</v>
       </c>
       <c r="F76">
-        <v>1159</v>
+        <v>2700</v>
       </c>
       <c r="G76">
-        <v>155</v>
+        <v>595</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="1"/>
+        <v>852802.3</v>
       </c>
     </row>
     <row r="77" spans="1:142" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B77" s="1">
-        <v>300</v>
-      </c>
-      <c r="C77" s="1">
-        <v>2027</v>
-      </c>
-      <c r="D77" s="1">
-        <v>3390</v>
-      </c>
-      <c r="E77" s="6">
-        <v>4409</v>
-      </c>
-      <c r="F77" s="1">
-        <v>5326</v>
-      </c>
-      <c r="G77" s="1">
-        <v>2103</v>
-      </c>
-      <c r="H77" s="3"/>
+      <c r="A77" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77">
+        <v>584</v>
+      </c>
+      <c r="C77">
+        <v>1912</v>
+      </c>
+      <c r="D77">
+        <v>2351</v>
+      </c>
+      <c r="E77" s="4">
+        <v>2663</v>
+      </c>
+      <c r="F77">
+        <v>1827</v>
+      </c>
+      <c r="G77">
+        <v>401</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="1"/>
+        <v>861905.2</v>
+      </c>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
       <c r="K77" s="3"/>
@@ -8553,211 +8857,246 @@
     </row>
     <row r="78" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B78">
-        <v>373</v>
+        <v>254</v>
       </c>
       <c r="C78">
-        <v>5205</v>
+        <v>1454</v>
       </c>
       <c r="D78">
-        <v>4541</v>
+        <v>1588</v>
       </c>
       <c r="E78" s="4">
-        <v>5004</v>
+        <v>1709</v>
       </c>
       <c r="F78">
-        <v>7242</v>
+        <v>2977</v>
       </c>
       <c r="G78">
-        <v>1628</v>
+        <v>523</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="1"/>
+        <v>940255.5</v>
       </c>
     </row>
     <row r="79" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>25</v>
       </c>
       <c r="B79">
-        <v>381</v>
+        <v>12</v>
       </c>
       <c r="C79">
-        <v>1753</v>
+        <v>2457</v>
       </c>
       <c r="D79">
-        <v>2311</v>
+        <v>2452</v>
       </c>
       <c r="E79" s="4">
-        <v>2116</v>
+        <v>1432</v>
       </c>
       <c r="F79">
-        <v>2214</v>
+        <v>2852</v>
       </c>
       <c r="G79">
-        <v>497</v>
+        <v>329</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="1"/>
+        <v>1438508</v>
       </c>
     </row>
     <row r="80" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B80">
-        <v>448</v>
+        <v>227</v>
       </c>
       <c r="C80">
-        <v>17217</v>
+        <v>1554</v>
       </c>
       <c r="D80">
-        <v>8971</v>
+        <v>2395</v>
       </c>
       <c r="E80" s="4">
-        <v>18691</v>
+        <v>1665</v>
       </c>
       <c r="F80">
-        <v>14732</v>
+        <v>3668</v>
       </c>
       <c r="G80">
-        <v>2064</v>
+        <v>600</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="1"/>
+        <v>1551387.7666666664</v>
       </c>
     </row>
     <row r="81" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="B81">
-        <v>461</v>
+        <v>1495</v>
       </c>
       <c r="C81">
-        <v>436</v>
+        <v>2072</v>
       </c>
       <c r="D81">
-        <v>523</v>
+        <v>3307</v>
       </c>
       <c r="E81" s="4">
-        <v>659</v>
+        <v>4817</v>
       </c>
       <c r="F81">
-        <v>608</v>
+        <v>2127</v>
       </c>
       <c r="G81">
-        <v>141</v>
+        <v>492</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="1"/>
+        <v>2260958</v>
       </c>
     </row>
     <row r="82" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>539</v>
-      </c>
-      <c r="C82">
-        <v>1639</v>
-      </c>
-      <c r="D82">
-        <v>2059</v>
-      </c>
-      <c r="E82" s="4">
-        <v>2455</v>
-      </c>
-      <c r="F82">
-        <v>2700</v>
-      </c>
-      <c r="G82">
-        <v>595</v>
+      <c r="A82" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1">
+        <v>300</v>
+      </c>
+      <c r="C82" s="1">
+        <v>2027</v>
+      </c>
+      <c r="D82" s="1">
+        <v>3390</v>
+      </c>
+      <c r="E82" s="6">
+        <v>4409</v>
+      </c>
+      <c r="F82" s="1">
+        <v>5326</v>
+      </c>
+      <c r="G82" s="1">
+        <v>2103</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="1"/>
+        <v>3311198.166666667</v>
       </c>
     </row>
     <row r="83" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="C83">
-        <v>1912</v>
+        <v>3133</v>
       </c>
       <c r="D83">
-        <v>2351</v>
+        <v>3724</v>
       </c>
       <c r="E83" s="4">
-        <v>2663</v>
+        <v>5235</v>
       </c>
       <c r="F83">
-        <v>1827</v>
+        <v>3092</v>
       </c>
       <c r="G83">
-        <v>401</v>
+        <v>529</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="1"/>
+        <v>3393354.2666666671</v>
       </c>
     </row>
     <row r="84" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B84">
-        <v>593</v>
+        <v>1935</v>
       </c>
       <c r="C84">
-        <v>3133</v>
+        <v>4341</v>
       </c>
       <c r="D84">
-        <v>3724</v>
+        <v>5173</v>
       </c>
       <c r="E84" s="4">
-        <v>5235</v>
+        <v>4230</v>
       </c>
       <c r="F84">
-        <v>3092</v>
+        <v>5781</v>
       </c>
       <c r="G84">
-        <v>529</v>
+        <v>841</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="1"/>
+        <v>3695895.3666666658</v>
       </c>
     </row>
     <row r="85" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>814</v>
+        <v>1066</v>
       </c>
       <c r="C85">
-        <v>9517</v>
+        <v>3820</v>
       </c>
       <c r="D85">
-        <v>15603</v>
+        <v>5187</v>
       </c>
       <c r="E85" s="4">
-        <v>22376</v>
+        <v>3204</v>
       </c>
       <c r="F85">
-        <v>9055</v>
+        <v>6643</v>
       </c>
       <c r="G85">
-        <v>1889</v>
+        <v>1009</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="1"/>
+        <v>5008606.166666666</v>
       </c>
     </row>
     <row r="86" spans="1:142" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="2">
-        <v>825</v>
-      </c>
-      <c r="C86" s="2">
-        <v>5571</v>
-      </c>
-      <c r="D86" s="2">
-        <v>8297</v>
-      </c>
-      <c r="E86" s="5">
-        <v>7541</v>
-      </c>
-      <c r="F86" s="2">
-        <v>23228</v>
-      </c>
-      <c r="G86" s="2">
-        <v>5319</v>
-      </c>
-      <c r="H86" s="3"/>
+      <c r="A86" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>373</v>
+      </c>
+      <c r="C86">
+        <v>5205</v>
+      </c>
+      <c r="D86">
+        <v>4541</v>
+      </c>
+      <c r="E86" s="4">
+        <v>5004</v>
+      </c>
+      <c r="F86">
+        <v>7242</v>
+      </c>
+      <c r="G86">
+        <v>1628</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="1"/>
+        <v>6408958.166666666</v>
+      </c>
       <c r="I86" s="3"/>
       <c r="J86" s="3"/>
       <c r="K86" s="3"/>
@@ -8894,28 +9233,31 @@
       <c r="EL86" s="3"/>
     </row>
     <row r="87" spans="1:142" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="2">
-        <v>905</v>
-      </c>
-      <c r="C87" s="2">
-        <v>6759</v>
-      </c>
-      <c r="D87" s="2">
-        <v>6885</v>
-      </c>
-      <c r="E87" s="5">
-        <v>13730</v>
-      </c>
-      <c r="F87" s="2">
-        <v>17659</v>
-      </c>
-      <c r="G87" s="2">
-        <v>2467</v>
-      </c>
-      <c r="H87" s="3"/>
+      <c r="A87" t="s">
+        <v>76</v>
+      </c>
+      <c r="B87">
+        <v>193</v>
+      </c>
+      <c r="C87">
+        <v>2500</v>
+      </c>
+      <c r="D87">
+        <v>3282</v>
+      </c>
+      <c r="E87" s="4">
+        <v>4351</v>
+      </c>
+      <c r="F87">
+        <v>8000</v>
+      </c>
+      <c r="G87">
+        <v>1015</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="1"/>
+        <v>7734897.0999999996</v>
+      </c>
       <c r="I87" s="3"/>
       <c r="J87" s="3"/>
       <c r="K87" s="3"/>
@@ -9053,50 +9395,57 @@
     </row>
     <row r="88" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>1066</v>
+        <v>1627</v>
       </c>
       <c r="C88">
-        <v>3820</v>
+        <v>5773</v>
       </c>
       <c r="D88">
-        <v>5187</v>
+        <v>4835</v>
       </c>
       <c r="E88" s="4">
-        <v>3204</v>
+        <v>10000</v>
       </c>
       <c r="F88">
-        <v>6643</v>
+        <v>6079</v>
       </c>
       <c r="G88">
-        <v>1009</v>
+        <v>1034</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="1"/>
+        <v>10764885.866666669</v>
       </c>
     </row>
     <row r="89" spans="1:142" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="2">
-        <v>1340</v>
-      </c>
-      <c r="C89" s="2">
-        <v>15585</v>
-      </c>
-      <c r="D89" s="2">
-        <v>24884</v>
-      </c>
-      <c r="E89" s="5">
-        <v>31224</v>
-      </c>
-      <c r="F89" s="2">
-        <v>75788</v>
-      </c>
-      <c r="G89" s="2">
-        <v>20388</v>
-      </c>
-      <c r="H89" s="3"/>
+      <c r="A89" t="s">
+        <v>101</v>
+      </c>
+      <c r="B89">
+        <v>3047</v>
+      </c>
+      <c r="C89">
+        <v>4834</v>
+      </c>
+      <c r="D89">
+        <v>6830</v>
+      </c>
+      <c r="E89" s="4">
+        <v>11384</v>
+      </c>
+      <c r="F89">
+        <v>8257</v>
+      </c>
+      <c r="G89">
+        <v>1779</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="1"/>
+        <v>12532830.166666668</v>
+      </c>
       <c r="I89" s="3"/>
       <c r="J89" s="3"/>
       <c r="K89" s="3"/>
@@ -9234,166 +9583,197 @@
     </row>
     <row r="90" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>1495</v>
+        <v>2393</v>
       </c>
       <c r="C90">
-        <v>2072</v>
+        <v>6956</v>
       </c>
       <c r="D90">
-        <v>3307</v>
+        <v>6368</v>
       </c>
       <c r="E90" s="4">
-        <v>4817</v>
+        <v>10261</v>
       </c>
       <c r="F90">
-        <v>2127</v>
+        <v>8987</v>
       </c>
       <c r="G90">
-        <v>492</v>
+        <v>1227</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="1"/>
+        <v>12782696.800000001</v>
       </c>
     </row>
     <row r="91" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>1627</v>
+        <v>2480</v>
       </c>
       <c r="C91">
-        <v>5773</v>
+        <v>5413</v>
       </c>
       <c r="D91">
-        <v>4835</v>
+        <v>9884</v>
       </c>
       <c r="E91" s="4">
-        <v>10000</v>
+        <v>7879</v>
       </c>
       <c r="F91">
-        <v>6079</v>
+        <v>10232</v>
       </c>
       <c r="G91">
-        <v>1034</v>
+        <v>1588</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="1"/>
+        <v>13672707.6</v>
       </c>
     </row>
     <row r="92" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92">
-        <v>1648</v>
-      </c>
-      <c r="C92">
-        <v>1966</v>
-      </c>
-      <c r="D92">
-        <v>2922</v>
-      </c>
-      <c r="E92" s="4">
-        <v>1887</v>
-      </c>
-      <c r="F92">
-        <v>2366</v>
-      </c>
-      <c r="G92">
-        <v>345</v>
+      <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2">
+        <v>905</v>
+      </c>
+      <c r="C92" s="2">
+        <v>6759</v>
+      </c>
+      <c r="D92" s="2">
+        <v>6885</v>
+      </c>
+      <c r="E92" s="5">
+        <v>13730</v>
+      </c>
+      <c r="F92" s="2">
+        <v>17659</v>
+      </c>
+      <c r="G92" s="2">
+        <v>2467</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="1"/>
+        <v>41967652.700000003</v>
       </c>
     </row>
     <row r="93" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93">
-        <v>1935</v>
-      </c>
-      <c r="C93">
-        <v>4341</v>
-      </c>
-      <c r="D93">
-        <v>5173</v>
-      </c>
-      <c r="E93" s="4">
-        <v>4230</v>
-      </c>
-      <c r="F93">
-        <v>5781</v>
-      </c>
-      <c r="G93">
-        <v>841</v>
+      <c r="A93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>825</v>
+      </c>
+      <c r="C93" s="2">
+        <v>5571</v>
+      </c>
+      <c r="D93" s="2">
+        <v>8297</v>
+      </c>
+      <c r="E93" s="5">
+        <v>7541</v>
+      </c>
+      <c r="F93" s="2">
+        <v>23228</v>
+      </c>
+      <c r="G93" s="2">
+        <v>5319</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="1"/>
+        <v>59094061.5</v>
       </c>
     </row>
     <row r="94" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="B94">
-        <v>2393</v>
+        <v>448</v>
       </c>
       <c r="C94">
-        <v>6956</v>
+        <v>17217</v>
       </c>
       <c r="D94">
-        <v>6368</v>
+        <v>8971</v>
       </c>
       <c r="E94" s="4">
-        <v>10261</v>
+        <v>18691</v>
       </c>
       <c r="F94">
-        <v>8987</v>
+        <v>14732</v>
       </c>
       <c r="G94">
-        <v>1227</v>
+        <v>2064</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="1"/>
+        <v>60907769.366666675</v>
       </c>
     </row>
     <row r="95" spans="1:142" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B95">
-        <v>2480</v>
+        <v>814</v>
       </c>
       <c r="C95">
-        <v>5413</v>
+        <v>9517</v>
       </c>
       <c r="D95">
-        <v>9884</v>
+        <v>15603</v>
       </c>
       <c r="E95" s="4">
-        <v>7879</v>
+        <v>22376</v>
       </c>
       <c r="F95">
-        <v>10232</v>
+        <v>9055</v>
       </c>
       <c r="G95">
-        <v>1588</v>
+        <v>1889</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="1"/>
+        <v>67152692.666666672</v>
       </c>
     </row>
     <row r="96" spans="1:142" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>101</v>
-      </c>
-      <c r="B96">
-        <v>3047</v>
-      </c>
-      <c r="C96">
-        <v>4834</v>
-      </c>
-      <c r="D96">
-        <v>6830</v>
-      </c>
-      <c r="E96" s="4">
-        <v>11384</v>
-      </c>
-      <c r="F96">
-        <v>8257</v>
-      </c>
-      <c r="G96">
-        <v>1779</v>
+      <c r="A96" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>1340</v>
+      </c>
+      <c r="C96" s="2">
+        <v>15585</v>
+      </c>
+      <c r="D96" s="2">
+        <v>24884</v>
+      </c>
+      <c r="E96" s="5">
+        <v>31224</v>
+      </c>
+      <c r="F96" s="2">
+        <v>75788</v>
+      </c>
+      <c r="G96" s="2">
+        <v>20388</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="1"/>
+        <v>645276666.29999995</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:H96">
+    <sortCondition ref="H2:H96"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9402,23 +9782,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E32" sqref="B30:E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7" t="s">
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -9490,7 +9870,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>104</v>
       </c>
       <c r="B5">
@@ -9507,7 +9887,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>105</v>
       </c>
       <c r="B6">
@@ -9524,7 +9904,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
+      <c r="A7" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -9558,21 +9938,21 @@
       <c r="A14" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7" t="s">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -9692,21 +10072,21 @@
       <c r="A26" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7" t="s">
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7" t="s">
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C27">
@@ -9813,14 +10193,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="I26:K26"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="H14:J14"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="I26:K26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
